--- a/formato_catalogo.xlsx
+++ b/formato_catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelacuna/Sites/catalogador/catalogador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603947C-5782-7C4A-83CE-37CB1ADFE5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA752261-5EF4-5745-B16A-8C550CE3CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37240" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>Estante mostrador con placa ranurada con luces (Alto 2.00m, Largo 2.70m, Ancho 20cm)</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Scavone</t>
   </si>
@@ -52,6 +46,10 @@
   </si>
   <si>
     <t>precio_base</t>
+  </si>
+  <si>
+    <t>Estante mostrador con placa ranurada 
+con luces (Alto 2.00m, Largo 2.70m, Ancho 20cm)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,9 +165,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +173,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,7 +398,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,72 +410,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>900000</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
+      <c r="C3" s="8">
+        <v>900000</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>900000</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>100</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>900000</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
